--- a/Информация о проходах/Резников Марк Георгиевич.xlsx
+++ b/Информация о проходах/Резников Марк Георгиевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-06-03 09:10:18</t>
+          <t>2024-05-15 09:26:28</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-06-03 12:42:07</t>
+          <t>2024-05-15 13:47:38</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-06-03 14:17:25</t>
+          <t>2024-05-15 14:18:09</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-06-03 18:01:20</t>
+          <t>2024-05-15 18:07:20</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-06-04 09:10:15</t>
+          <t>2024-05-16 09:21:49</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-06-04 11:16:53</t>
+          <t>2024-05-16 13:41:13</t>
         </is>
       </c>
     </row>
@@ -640,6 +640,1734 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-16 14:26:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-05-16 18:06:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-05-17 09:05:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-05-17 13:05:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-05-17 15:02:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-05-17 18:02:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-05-20 09:29:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-05-20 12:42:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-20 15:05:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-20 18:02:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-21 09:21:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-05-21 11:23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-05-21 14:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-05-21 18:05:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-05-22 09:19:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-05-22 13:04:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-05-22 13:51:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-22 17:59:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-05-23 09:12:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-05-23 10:49:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-05-23 11:48:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-23 13:02:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-23 14:27:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-05-23 18:03:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-05-24 09:12:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-05-24 13:18:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-05-24 14:35:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-05-24 18:00:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-05-27 09:24:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-05-27 12:39:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-05-27 14:36:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-05-27 18:04:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-05-28 09:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-05-28 11:30:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-05-28 14:14:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-05-28 18:00:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-05-29 09:29:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-05-29 13:31:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-05-29 14:03:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-05-29 18:02:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-05-30 09:18:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-05-30 13:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-05-30 14:01:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-05-30 18:01:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-05-31 09:13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-05-31 13:01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-05-31 15:19:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-05-31 18:02:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-06-03 09:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-06-03 12:42:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-06-03 14:17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-06-03 18:01:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-06-04 09:10:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-06-04 11:16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
         <is>
           <t>2024-06-04 14:27:28</t>
         </is>

--- a/Информация о проходах/Резников Марк Георгиевич.xlsx
+++ b/Информация о проходах/Резников Марк Георгиевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>2024-05-15 09:26:28</t>
+          <t>2024-06-03 09:10:18</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-05-15 13:47:38</t>
+          <t>2024-06-03 12:42:07</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2024-05-15 14:18:09</t>
+          <t>2024-06-03 14:17:25</t>
         </is>
       </c>
     </row>
@@ -545,7 +545,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2024-05-15 18:07:20</t>
+          <t>2024-06-03 18:01:20</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2024-05-16 09:21:49</t>
+          <t>2024-06-04 09:10:15</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2024-05-16 13:41:13</t>
+          <t>2024-06-04 11:16:53</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2024-05-16 14:26:11</t>
+          <t>2024-06-04 14:27:28</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2024-05-16 18:06:46</t>
+          <t>2024-06-04 18:02:21</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2024-05-17 09:05:21</t>
+          <t>2024-06-05 09:12:06</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2024-05-17 13:05:10</t>
+          <t>2024-06-05 13:15:26</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-05-17 15:02:11</t>
+          <t>2024-06-05 14:37:56</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2024-05-17 18:02:29</t>
+          <t>2024-06-05 18:01:30</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2024-05-20 09:29:19</t>
+          <t>2024-06-06 09:18:20</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-05-20 12:42:27</t>
+          <t>2024-06-06 13:05:19</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-20 15:05:47</t>
+          <t>2024-06-06 14:26:12</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2024-05-20 18:02:14</t>
+          <t>2024-06-06 18:09:04</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2024-05-21 09:21:21</t>
+          <t>2024-06-07 09:21:29</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2024-05-21 11:23:54</t>
+          <t>2024-06-07 12:57:11</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2024-05-21 14:04:37</t>
+          <t>2024-06-07 14:51:03</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2024-05-21 18:05:53</t>
+          <t>2024-06-07 18:02:11</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2024-05-22 09:19:25</t>
+          <t>2024-06-10 09:31:09</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2024-05-22 13:04:17</t>
+          <t>2024-06-10 12:38:14</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2024-05-22 13:51:04</t>
+          <t>2024-06-10 14:42:08</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2024-05-22 17:59:11</t>
+          <t>2024-06-10 17:48:44</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2024-05-23 09:12:52</t>
+          <t>2024-06-11 09:30:14</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2024-05-23 10:49:15</t>
+          <t>2024-06-11 11:19:16</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2024-05-23 11:48:20</t>
+          <t>2024-06-11 14:34:27</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2024-05-23 13:02:24</t>
+          <t>2024-06-11 17:01:58</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2024-05-23 14:27:59</t>
+          <t>2024-06-13 09:12:37</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2024-05-23 18:03:50</t>
+          <t>2024-06-13 13:20:35</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2024-05-24 09:12:09</t>
+          <t>2024-06-13 13:55:14</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2024-05-24 13:18:14</t>
+          <t>2024-06-13 18:02:33</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2024-05-24 14:35:50</t>
+          <t>2024-06-14 09:27:36</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2024-05-24 18:00:54</t>
+          <t>2024-06-14 13:02:56</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2024-05-27 09:24:03</t>
+          <t>2024-06-14 14:58:04</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2024-05-27 12:39:32</t>
+          <t>2024-06-14 18:01:24</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2024-05-27 14:36:11</t>
+          <t>2024-06-17 10:46:43</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2024-05-27 18:04:43</t>
+          <t>2024-06-17 12:40:14</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2024-05-28 09:13:32</t>
+          <t>2024-06-17 14:38:36</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2024-05-28 11:30:02</t>
+          <t>2024-06-17 18:01:25</t>
         </is>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2024-05-28 14:14:53</t>
+          <t>2024-06-18 09:13:23</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2024-05-28 18:00:59</t>
+          <t>2024-06-18 11:34:19</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2024-05-29 09:29:19</t>
+          <t>2024-06-18 14:20:41</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2024-05-29 13:31:16</t>
+          <t>2024-06-18 18:01:48</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2024-05-29 14:03:10</t>
+          <t>2024-06-21 09:36:42</t>
         </is>
       </c>
     </row>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2024-05-29 18:02:32</t>
+          <t>2024-06-21 13:02:13</t>
         </is>
       </c>
     </row>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2024-05-30 09:18:57</t>
+          <t>2024-06-21 14:21:41</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2024-05-30 13:22:43</t>
+          <t>2024-06-21 18:03:20</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2024-05-30 14:01:08</t>
+          <t>2024-06-24 09:25:52</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2024-05-30 18:01:34</t>
+          <t>2024-06-24 12:40:12</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2024-05-31 09:13:27</t>
+          <t>2024-06-24 14:39:07</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2024-05-31 13:01:32</t>
+          <t>2024-06-24 18:02:02</t>
         </is>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2024-05-31 15:19:11</t>
+          <t>2024-06-25 09:16:51</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2024-05-31 18:02:25</t>
+          <t>2024-06-25 11:27:38</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2024-06-03 09:10:18</t>
+          <t>2024-06-25 15:16:14</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-06-03 12:42:07</t>
+          <t>2024-06-25 18:04:00</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2024-06-03 14:17:25</t>
+          <t>2024-06-28 09:26:06</t>
         </is>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2024-06-03 18:01:20</t>
+          <t>2024-06-28 14:07:13</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2024-06-04 09:10:15</t>
+          <t>2024-06-28 15:10:05</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2024-06-04 11:16:53</t>
+          <t>2024-06-28 17:57:04</t>
         </is>
       </c>
     </row>
@@ -2369,7 +2369,231 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2024-06-04 14:27:28</t>
+          <t>2024-07-01 09:17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-07-01 13:38:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-07-01 14:18:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:02:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-07-02 09:29:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-07-02 11:24:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-07-02 14:04:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Резников Марк Георгиевич</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Коммерческий директор</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Коммерческий и Административный директор</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-07-02 18:03:48</t>
         </is>
       </c>
     </row>
